--- a/Track 0.xlsx
+++ b/Track 0.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Work\IA - Inteligência Artificial\ProjIA\"/>
@@ -14,9 +14,10 @@
   <sheets>
     <sheet name="G51" sheetId="1" r:id="rId1"/>
     <sheet name="Prof" sheetId="3" r:id="rId2"/>
-    <sheet name="Map" sheetId="5" r:id="rId3"/>
+    <sheet name="Heuristic" sheetId="6" r:id="rId3"/>
+    <sheet name="Map" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="3">
   <si>
     <t>X</t>
   </si>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -50,7 +51,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,6 +88,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -100,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -121,6 +128,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1510,6 +1520,416 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="7.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>9</v>
+      </c>
+      <c r="H3" s="8">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2">
+        <v>6</v>
+      </c>
+      <c r="K3" s="7">
+        <v>5</v>
+      </c>
+      <c r="L3" s="8">
+        <v>4</v>
+      </c>
+      <c r="M3" s="1">
+        <v>3</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2</v>
+      </c>
+      <c r="O4" s="7">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
